--- a/biology/Mycologie/Boletales_(classification_phylogénétique)/Boletales_(classification_phylogénétique).xlsx
+++ b/biology/Mycologie/Boletales_(classification_phylogénétique)/Boletales_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boletales_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Boletales_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique des Boletales a bénéficié des progrès de la biologie moléculaire. La classification phylogénétique permet de révéler des affinités entre espèces présentant des morphologies très éloignées comme les bolets et les sclérodermes et de distinguer un certain nombre de clades. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boletales_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Boletales_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Arbre phylogénétique général des Boletales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2006, Binder et al.[1] ont proposé un arbre phylogénétique des Boletales où sont représentés les six sous-ordres Tapellinae, Coniophorineae, Paxillineae, Suillineae, Sclerodermatineae, Boletineae et les deux familles Hygrophoropsidaceae et Serpulaceae comme suit :  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2006, Binder et al. ont proposé un arbre phylogénétique des Boletales où sont représentés les six sous-ordres Tapellinae, Coniophorineae, Paxillineae, Suillineae, Sclerodermatineae, Boletineae et les deux familles Hygrophoropsidaceae et Serpulaceae comme suit :  
 Agaricales
 Atheliales
 Boletales
